--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R人物列表_Roles_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R人物列表_Roles_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD303EF-7FF5-4AA6-8F90-B2B97B75FA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1595E2F0-03FF-4F76-95BF-FB59088701A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="420" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="151">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -157,12 +157,18 @@
     <t>IdentityStr:[@str=npc_idstr_scroll]卷轴商人</t>
   </si>
   <si>
+    <t>IdentityStr:[@str=npc_idstr_scroll]Scroll Merchant</t>
+  </si>
+  <si>
     <t>旅行药剂商人</t>
   </si>
   <si>
     <t>IdentityStr:[@str=npc_idstr_drug]药剂商人</t>
   </si>
   <si>
+    <t>IdentityStr:[@str=npc_idstr_drug]Potion Merchant</t>
+  </si>
+  <si>
     <t>建设管家</t>
   </si>
   <si>
@@ -187,6 +193,9 @@
     <t>IdentityStr:[@str=npc_idstr_smith]铁匠</t>
   </si>
   <si>
+    <t>IdentityStr:[@str=npc_idstr_smith]Blacksmith</t>
+  </si>
+  <si>
     <t>任务寻找雕像</t>
   </si>
   <si>
@@ -244,6 +253,9 @@
     <t>托也普</t>
   </si>
   <si>
+    <t>Tabassum</t>
+  </si>
+  <si>
     <t>提提罗部落守卫</t>
   </si>
   <si>
@@ -337,13 +349,13 @@
     <t>Caçador</t>
   </si>
   <si>
-    <t>Guarda da Fortaleza da Pedra Vermelha</t>
-  </si>
-  <si>
-    <t>Mineiro</t>
-  </si>
-  <si>
-    <t>Líder dos Ghouls Ifrit</t>
+    <t>Guarda da Pedra Vermelha</t>
+  </si>
+  <si>
+    <t>Minerador</t>
+  </si>
+  <si>
+    <t>Líder dos Carniçais Ifrit</t>
   </si>
   <si>
     <t>Conselheiro</t>
@@ -355,15 +367,15 @@
     <t>Transeunte</t>
   </si>
   <si>
+    <t>Emissário de Akhal</t>
+  </si>
+  <si>
+    <t>Emissário de Nasir</t>
+  </si>
+  <si>
     <t>Emissário da Tribo</t>
   </si>
   <si>
-    <t>Emissário de Nasir</t>
-  </si>
-  <si>
-    <t>Emissário de Akhal</t>
-  </si>
-  <si>
     <t>Guerreiro Covarde</t>
   </si>
   <si>
@@ -388,7 +400,7 @@
     <t>Bandido Arrogante</t>
   </si>
   <si>
-    <t>Mercador Viajante</t>
+    <t>Comerciante Viajante</t>
   </si>
   <si>
     <t>Conselheiro Wafa</t>
@@ -397,13 +409,13 @@
     <t>Mago Misterioso</t>
   </si>
   <si>
-    <t>Ferreiro de Equipamentos</t>
+    <t>Reparador de Equipamento</t>
   </si>
   <si>
     <t>Explorador</t>
   </si>
   <si>
-    <t>Aldeão de Fleur</t>
+    <t>Morador de Fleur</t>
   </si>
   <si>
     <t>Garota Estranha</t>
@@ -412,10 +424,13 @@
     <t>Locutor da Arena</t>
   </si>
   <si>
-    <t>Velho</t>
-  </si>
-  <si>
-    <t>Velha</t>
+    <t>默认:Eu realmente quero sentir a queima daquelas pimentas Ember novamente…</t>
+  </si>
+  <si>
+    <t>Idoso</t>
+  </si>
+  <si>
+    <t>Idosa</t>
   </si>
   <si>
     <t>Ferreiro</t>
@@ -436,40 +451,28 @@
     <t>Ancião do Palácio</t>
   </si>
   <si>
-    <t>Antigo Rei Nasir</t>
+    <t>Velho Rei de Nasir</t>
   </si>
   <si>
     <t>Mago</t>
   </si>
   <si>
-    <t>Soldado Nasir</t>
-  </si>
-  <si>
-    <t>Soldado Akhal</t>
+    <t>Soldado de Nasir</t>
+  </si>
+  <si>
+    <t>Soldado de Akhal</t>
   </si>
   <si>
     <t>Irmão do Deserto</t>
   </si>
   <si>
-    <t>Membro dos Píromantes</t>
-  </si>
-  <si>
-    <t>Guerrilheiro Alpino</t>
-  </si>
-  <si>
-    <t>Herege</t>
-  </si>
-  <si>
-    <t>默认:Eu realmente quero sentir o ardor dessas pimentas Ember novamente...</t>
-  </si>
-  <si>
-    <t>IdentityStr:[@str=npc_idstr_scroll]Mercador de Pergaminhos</t>
-  </si>
-  <si>
-    <t>IdentityStr:[@str=npc_idstr_drug]Comerciante de Poções</t>
-  </si>
-  <si>
-    <t>IdentityStr:[@str=npc_idstr_smith]Ferreiro</t>
+    <t>Membro do Fogo Selvagem</t>
+  </si>
+  <si>
+    <t>Guerilheiro Alpino</t>
+  </si>
+  <si>
+    <t>Pagão</t>
   </si>
 </sst>
 </file>
@@ -975,18 +978,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
@@ -1020,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3"/>
       <c r="F2" s="2"/>
@@ -1033,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="2"/>
@@ -1046,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D4" s="3"/>
       <c r="F4" s="2"/>
@@ -1059,7 +1061,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D5" s="3"/>
       <c r="F5" s="2"/>
@@ -1072,7 +1074,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D6" s="3"/>
       <c r="F6" s="2"/>
@@ -1085,7 +1087,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D7" s="3"/>
       <c r="F7" s="2"/>
@@ -1098,7 +1100,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D8" s="3"/>
       <c r="F8" s="2"/>
@@ -1111,7 +1113,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D9" s="3"/>
       <c r="F9" s="2"/>
@@ -1124,7 +1126,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="2"/>
@@ -1137,7 +1139,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="2"/>
@@ -1150,7 +1152,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D12" s="3"/>
       <c r="F12" s="2"/>
@@ -1163,7 +1165,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D13" s="3"/>
       <c r="F13" s="2"/>
@@ -1176,7 +1178,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D14" s="3"/>
       <c r="F14" s="2"/>
@@ -1189,7 +1191,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D15" s="3"/>
       <c r="F15" s="2"/>
@@ -1202,7 +1204,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D16" s="3"/>
       <c r="F16" s="2"/>
@@ -1215,7 +1217,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D17" s="3"/>
       <c r="F17" s="2"/>
@@ -1228,7 +1230,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="2"/>
@@ -1241,7 +1243,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D19" s="3"/>
       <c r="F19" s="2"/>
@@ -1254,7 +1256,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D20" s="3"/>
       <c r="F20" s="2"/>
@@ -1267,7 +1269,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D21" s="3"/>
       <c r="F21" s="2"/>
@@ -1280,427 +1282,427 @@
         <v>43</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D22" s="3"/>
       <c r="F22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="81">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D24" s="3"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="81">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D25" s="3"/>
       <c r="F25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="81">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D26" s="3"/>
       <c r="F26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="67.5">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D27" s="3"/>
       <c r="F27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="27">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D28" s="3"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="27">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D29" s="3"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="27">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D30" s="3"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="27">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D31" s="3"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="67.5">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D33" s="3"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="27">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D34" s="3"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="27">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D35" s="3"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="40.5">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D36" s="3"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="27">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="D37" s="3"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="27">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D38" s="3"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D39" s="3"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="27">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="27">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="27">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="27">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="27">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="27">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="27">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="27">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="27">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" ht="27">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D52" s="2"/>
       <c r="F52" s="2"/>
